--- a/biology/Botanique/Palicourea_aubletii/Palicourea_aubletii.xlsx
+++ b/biology/Botanique/Palicourea_aubletii/Palicourea_aubletii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Palicourea aubletii est une espèce d'arbuste d'Amérique du sud, appartenant à la famille des Rubiaceae.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Palicourea aubletii est un arbuste ou petit arbre glabre, atteignant jusqu'à 3 m de haut.
 Les feuilles mesurent 18-21 × 3,5-12 cm avec des pétioles longs de 5-10 mm.
@@ -519,10 +533,10 @@
 L'inflorescence est terminale, paniculée, avec un pédoncule long de 3,5-7 cm, une portion ramifiée mesurant 5-9 × 4-7 cm, les bractées florales réduites, et les pédicelles longs de 0-0,5 mm.
 Le limbe du calice est long d'environ 0,2 mm, subtronculé.
 La corolle est blanche ou vert pâle, avec le tube long d'environ 3 mm, et des lobes d'environ 1 mm.
-Le fruit est subglobuleux, noir, mesurant 3-3,5 × 4-4,5 mm, contenant 2 pyrènes, avec une cavité ventrale centrale arrondie assez profonde, et dorsalement strié[5].
+Le fruit est subglobuleux, noir, mesurant 3-3,5 × 4-4,5 mm, contenant 2 pyrènes, avec une cavité ventrale centrale arrondie assez profonde, et dorsalement strié.
 En 1953, Lemée en propose la description suivante de Palicourea aubletii :
 « [Psychotria] paniculata Raeusch. ,(N. paniculata Aubl., P. flexuosa w.). Arbrisseau glabre ; feuilles de 0,10-0,16 sur 0,04-0,06, ovales ou oblongues acuminées-caudées, à base atténuée en pétiole, avec environ 9 paires de nervures, stipules de 3 mm., triangulaires bidentées ; panicules à pédoncule de 0,0.6 environ, à ramifications espacées, avec ou sans bractées ; fleurs sessiles ou presque, articulées à la base, glabres, calice réduit à une bordure denticulée, corolle de 3 mm., hypocratérimorphe, un peu pubescente en dedans ; drupe ? - Maroni : camp Godebert (R. Benoist). »
-— Albert Lemée, 1953.[6]</t>
+— Albert Lemée, 1953.</t>
         </is>
       </c>
     </row>
@@ -550,9 +564,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Palicourea aubletii est présent du Venezuela (Bolívar, Amazonas) au Brésil, en passant par le Guyana, le Suriname, et la Guyane[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Palicourea aubletii est présent du Venezuela (Bolívar, Amazonas) au Brésil, en passant par le Guyana, le Suriname, et la Guyane.
 </t>
         </is>
       </c>
@@ -581,9 +597,11 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Palicourea aubletii pousse dans les forêts d'altitude, à 300-1 100 m d'altitude[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Palicourea aubletii pousse dans les forêts d'altitude, à 300-1 100 m d'altitude.
 </t>
         </is>
       </c>
@@ -612,10 +630,12 @@
           <t>Protologue</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>[7]
-En 1775, le botaniste Aublet a premièrement décrit Palicourea aubletii sous le nom de Nonatelia paniculata et en a proposé le protologue suivant[1] : 
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+En 1775, le botaniste Aublet a premièrement décrit Palicourea aubletii sous le nom de Nonatelia paniculata et en a proposé le protologue suivant : 
 « 2. NONATELIA (paniculaia) foliis ovatis, acutis, florum calicibus nudis. {Tabula 70. Fig. 2.)
 Planta perennis, quadripedalis. Caulis nodofus, ramoſus. Folia oppoſita, ovato-oblonga, acuta, glabra, integerrima, petiolata, vaginæ amplexicauli, quadridentatæ adnexa. Flores terminates, paniculati. Calix nodoſus. Corolla alba. Bacca violacea.
 Florebat fructumque ferebat Auguſto.
